--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H956"/>
+  <dimension ref="A1:H933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21257,10 +21257,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -21291,10 +21289,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="636">
@@ -21329,10 +21325,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21367,10 +21361,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21401,10 +21393,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21435,10 +21425,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21473,10 +21461,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H640" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -21511,10 +21497,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -21545,10 +21529,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -21579,10 +21561,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -21613,10 +21593,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -21647,10 +21625,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -21685,10 +21661,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -21723,10 +21697,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H647" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -21761,10 +21733,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H648" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -21799,10 +21769,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="650">
@@ -21837,10 +21805,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -21871,10 +21837,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -21909,10 +21873,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -21943,10 +21905,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -21981,10 +21941,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22019,10 +21977,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22053,10 +22009,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22087,10 +22041,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22125,10 +22077,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H658" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -22159,10 +22109,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22193,10 +22141,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22227,10 +22173,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22261,10 +22205,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22287,10 +22229,8 @@
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -22317,10 +22257,8 @@
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="665">
@@ -22347,10 +22285,8 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -22377,10 +22313,8 @@
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -22411,10 +22345,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -22441,10 +22373,8 @@
         </is>
       </c>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22475,10 +22405,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -22509,10 +22437,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22535,10 +22461,8 @@
       </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22587,10 +22511,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22625,10 +22547,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -22663,10 +22583,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H675" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -22711,10 +22629,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -22745,10 +22661,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -22771,10 +22685,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -22823,10 +22735,8 @@
           <t>$3.4B</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -22857,10 +22767,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="683">
@@ -22891,10 +22799,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -22921,10 +22827,8 @@
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr"/>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -22951,10 +22855,8 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -22981,10 +22883,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23019,10 +22919,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -23053,10 +22951,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23083,10 +22979,8 @@
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23113,10 +23007,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23143,10 +23035,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23177,10 +23067,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23207,10 +23095,8 @@
       </c>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23237,10 +23123,8 @@
       </c>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23267,10 +23151,8 @@
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23297,10 +23179,8 @@
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23327,10 +23207,8 @@
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23361,10 +23239,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="699">
@@ -23391,10 +23267,8 @@
       </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H699" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -23421,10 +23295,8 @@
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H700" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -23455,10 +23327,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="702">
@@ -23489,10 +23359,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="703">
@@ -23523,10 +23391,8 @@
         </is>
       </c>
       <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="704">
@@ -23557,10 +23423,8 @@
         </is>
       </c>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="705">
@@ -23587,10 +23451,8 @@
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -23613,10 +23475,8 @@
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr"/>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23643,10 +23503,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23673,10 +23531,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23703,10 +23559,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -23729,10 +23583,8 @@
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -23751,10 +23603,8 @@
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -23799,10 +23649,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -23833,10 +23681,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -23863,10 +23709,8 @@
       </c>
       <c r="F715" t="inlineStr"/>
       <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -23893,10 +23737,8 @@
       </c>
       <c r="F716" t="inlineStr"/>
       <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -23927,10 +23769,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -23961,10 +23801,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -23999,10 +23837,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24033,10 +23869,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24067,10 +23901,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24101,10 +23933,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -24135,10 +23965,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24165,10 +23993,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24195,10 +24021,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24225,10 +24049,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24255,10 +24077,8 @@
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24289,10 +24109,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24327,10 +24145,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H729" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -24365,10 +24181,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -24403,10 +24217,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="732">
@@ -24437,10 +24249,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24471,10 +24281,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24505,10 +24313,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24543,10 +24349,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24573,10 +24377,8 @@
       </c>
       <c r="F736" t="inlineStr"/>
       <c r="G736" t="inlineStr"/>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24599,10 +24401,8 @@
       <c r="E737" t="inlineStr"/>
       <c r="F737" t="inlineStr"/>
       <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -24633,10 +24433,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24667,10 +24465,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -24701,10 +24497,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -24727,10 +24521,8 @@
       <c r="E741" t="inlineStr"/>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="742">
@@ -24761,10 +24553,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -24795,10 +24585,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -24825,10 +24613,8 @@
       </c>
       <c r="F744" t="inlineStr"/>
       <c r="G744" t="inlineStr"/>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="745">
@@ -24859,10 +24645,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -24889,10 +24673,8 @@
       </c>
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -24919,10 +24701,8 @@
       </c>
       <c r="F747" t="inlineStr"/>
       <c r="G747" t="inlineStr"/>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -24945,10 +24725,8 @@
       </c>
       <c r="F748" t="inlineStr"/>
       <c r="G748" t="inlineStr"/>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -24971,10 +24749,8 @@
       </c>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -25023,10 +24799,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25057,10 +24831,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -25091,10 +24863,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -25125,10 +24895,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H754" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -25159,10 +24927,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25193,10 +24959,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25227,10 +24991,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -25261,10 +25023,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -25295,10 +25055,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -25329,10 +25087,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25363,10 +25119,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25397,10 +25151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25431,10 +25183,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25465,10 +25215,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25499,10 +25247,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25533,10 +25279,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25567,10 +25311,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="768">
@@ -25601,10 +25343,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25635,10 +25375,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -25673,10 +25411,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -25711,10 +25447,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -25749,10 +25483,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -25787,10 +25519,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -25825,10 +25555,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -25863,10 +25591,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -25901,10 +25627,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -25939,10 +25663,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -25977,10 +25699,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26011,10 +25731,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H779" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -26045,10 +25763,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="781">
@@ -26079,10 +25795,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26109,10 +25823,8 @@
       </c>
       <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr"/>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26139,10 +25851,8 @@
       </c>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26173,10 +25883,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -26207,10 +25915,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -26237,10 +25943,8 @@
       </c>
       <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr"/>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26267,10 +25971,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26297,10 +25999,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26327,10 +26027,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26357,10 +26055,8 @@
       </c>
       <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr"/>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26391,10 +26087,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26417,10 +26111,8 @@
       <c r="E792" t="inlineStr"/>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26455,10 +26147,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26485,10 +26175,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26523,10 +26211,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26561,10 +26247,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H796" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -26595,10 +26279,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H797" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -26633,10 +26315,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H798" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -26667,10 +26347,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H799" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -26701,10 +26379,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="801">
@@ -26735,10 +26411,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -26769,10 +26443,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -26795,10 +26467,8 @@
       <c r="E803" t="inlineStr"/>
       <c r="F803" t="inlineStr"/>
       <c r="G803" t="inlineStr"/>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="804">
@@ -26825,10 +26495,8 @@
       </c>
       <c r="F804" t="inlineStr"/>
       <c r="G804" t="inlineStr"/>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -26855,10 +26523,8 @@
       </c>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr"/>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -26885,10 +26551,8 @@
       </c>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="807">
@@ -26915,10 +26579,8 @@
       </c>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="808">
@@ -26945,10 +26607,8 @@
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="809">
@@ -26975,10 +26635,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="810">
@@ -27005,10 +26663,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27035,10 +26691,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27065,10 +26719,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27099,10 +26751,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -27133,10 +26783,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -27159,10 +26807,8 @@
       <c r="E815" t="inlineStr"/>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -27189,10 +26835,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27223,10 +26867,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -27253,10 +26895,8 @@
       </c>
       <c r="F818" t="inlineStr"/>
       <c r="G818" t="inlineStr"/>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27279,10 +26919,8 @@
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27313,10 +26951,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -27347,10 +26983,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27381,10 +27015,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27415,10 +27047,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27449,10 +27079,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H824" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -27483,10 +27111,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="826">
@@ -27513,10 +27139,8 @@
       </c>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -27543,10 +27167,8 @@
       </c>
       <c r="F827" t="inlineStr"/>
       <c r="G827" t="inlineStr"/>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27577,10 +27199,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27615,10 +27235,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -27645,10 +27263,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27675,10 +27291,8 @@
       </c>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -27705,10 +27319,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -27735,10 +27347,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -27765,10 +27375,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -27791,10 +27399,8 @@
       </c>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27813,10 +27419,8 @@
       <c r="E836" t="inlineStr"/>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -27843,10 +27447,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -27873,10 +27475,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -27903,10 +27503,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27947,10 +27545,8 @@
       </c>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -27985,10 +27581,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28023,10 +27617,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28061,10 +27653,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28099,10 +27689,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28133,10 +27721,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H846" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -28167,10 +27753,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H847" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -28201,10 +27785,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -28235,10 +27817,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -28269,10 +27849,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28303,10 +27881,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28337,10 +27913,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -28371,10 +27945,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28405,10 +27977,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -28439,10 +28009,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28473,10 +28041,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28507,10 +28073,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28545,10 +28109,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28583,10 +28145,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28621,10 +28181,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28659,10 +28217,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28685,10 +28241,8 @@
       <c r="E862" t="inlineStr"/>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28711,10 +28265,8 @@
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28737,10 +28289,8 @@
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28771,10 +28321,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -28801,10 +28349,8 @@
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28835,10 +28381,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28869,10 +28413,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28903,10 +28445,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -28941,10 +28481,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -28975,10 +28513,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -29009,10 +28545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="873">
@@ -29043,10 +28577,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -29077,10 +28609,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29115,10 +28645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="876">
@@ -29149,10 +28677,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29183,10 +28709,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29217,10 +28741,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29251,10 +28773,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29281,10 +28801,8 @@
       </c>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29311,10 +28829,8 @@
       </c>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29341,10 +28857,8 @@
       </c>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -29371,10 +28885,8 @@
       </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29401,10 +28913,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -29435,10 +28945,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29469,10 +28977,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29503,10 +29009,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29541,10 +29045,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -29579,10 +29081,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29609,10 +29109,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29639,10 +29137,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29669,10 +29165,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29695,10 +29189,8 @@
       <c r="E893" t="inlineStr"/>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29725,10 +29217,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29751,10 +29241,8 @@
       <c r="E895" t="inlineStr"/>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29785,10 +29273,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29811,10 +29297,8 @@
       <c r="E897" t="inlineStr"/>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29837,10 +29321,8 @@
       <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29871,10 +29353,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29905,10 +29385,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -29935,10 +29413,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29969,10 +29445,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H902" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="903">
@@ -30003,10 +29477,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30041,10 +29513,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H904" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -30079,10 +29549,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H905" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -30117,10 +29585,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H906" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -30155,10 +29621,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -30193,10 +29657,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H908" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -30227,10 +29689,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -30261,10 +29721,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -30291,120 +29749,142 @@
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B912" t="inlineStr"/>
-      <c r="C912" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Capacity UtilizationDEC</t>
+        </is>
+      </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr"/>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
-      <c r="H912" t="inlineStr"/>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H915" t="inlineStr">
@@ -30416,31 +29896,23 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
           <t>3</t>
@@ -30450,31 +29922,23 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
           <t>3</t>
@@ -30484,137 +29948,113 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
       <c r="H920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A921" t="inlineStr"/>
       <c r="B921" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F921" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G921" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
           <t>3</t>
@@ -30624,191 +30064,167 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr"/>
+      <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
@@ -30820,27 +30236,35 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30850,27 +30274,31 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
@@ -30880,820 +30308,90 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A933" t="inlineStr"/>
       <c r="B933" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B938" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C938" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B939" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr"/>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr"/>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B941" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C941" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B943" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C943" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr"/>
-      <c r="B944" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C944" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B945" t="inlineStr"/>
-      <c r="C945" t="inlineStr"/>
-      <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr"/>
-      <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
-      <c r="H945" t="inlineStr"/>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B946" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C946" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B947" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C947" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C948" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B949" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C949" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B950" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C950" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B951" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C951" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D951" t="inlineStr"/>
-      <c r="E951" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F951" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C952" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C953" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr"/>
-      <c r="B954" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C954" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
-      <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B955" t="inlineStr"/>
-      <c r="C955" t="inlineStr"/>
-      <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
-      <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr"/>
-    </row>
-    <row r="956">
-      <c r="A956" t="inlineStr"/>
-      <c r="B956" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C956" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H941"/>
+  <dimension ref="A1:H919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22717,10 +22717,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="681">
@@ -22747,10 +22745,8 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H681" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -22777,10 +22773,8 @@
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H682" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -22811,10 +22805,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="684">
@@ -22845,10 +22837,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -22879,10 +22869,8 @@
         </is>
       </c>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -22913,10 +22901,8 @@
         </is>
       </c>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -22943,10 +22929,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -22969,10 +22953,8 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -22999,10 +22981,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23029,10 +23009,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23059,10 +23037,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23085,10 +23061,8 @@
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23107,10 +23081,8 @@
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23155,10 +23127,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23189,10 +23159,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23219,10 +23187,8 @@
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23249,10 +23215,8 @@
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23283,10 +23247,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23317,10 +23279,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23355,10 +23315,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23389,10 +23347,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="703">
@@ -23423,10 +23379,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="704">
@@ -23457,10 +23411,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -23491,10 +23443,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -23521,10 +23471,8 @@
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr"/>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23551,10 +23499,8 @@
       </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23581,10 +23527,8 @@
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23611,10 +23555,8 @@
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -23645,10 +23587,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -23683,10 +23623,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H711" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -23721,10 +23659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="713">
@@ -23759,10 +23695,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -23793,10 +23727,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -23827,10 +23759,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -23861,10 +23791,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -23899,10 +23827,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -23929,10 +23855,8 @@
       </c>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -23955,10 +23879,8 @@
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -23989,10 +23911,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24023,10 +23943,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24057,10 +23975,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24083,10 +23999,8 @@
       <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="724">
@@ -24117,10 +24031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24151,10 +24063,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24181,10 +24091,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="727">
@@ -24215,10 +24123,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -24245,10 +24151,8 @@
       </c>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24275,10 +24179,8 @@
       </c>
       <c r="F729" t="inlineStr"/>
       <c r="G729" t="inlineStr"/>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24301,10 +24203,8 @@
       </c>
       <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr"/>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -24327,10 +24227,8 @@
       </c>
       <c r="F731" t="inlineStr"/>
       <c r="G731" t="inlineStr"/>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="732">
@@ -24379,10 +24277,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24413,10 +24309,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="735">
@@ -24447,10 +24341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -24481,10 +24373,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H736" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -24515,10 +24405,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -24549,10 +24437,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -24583,10 +24469,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -24617,10 +24501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -24651,10 +24533,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -24685,10 +24565,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -24719,10 +24597,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -24753,10 +24629,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -24787,10 +24661,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -24821,10 +24693,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -24855,10 +24725,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -24889,10 +24757,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -24923,10 +24789,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -24957,10 +24821,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -24991,10 +24853,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25029,10 +24889,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -25067,10 +24925,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -25105,10 +24961,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25143,10 +24997,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25181,10 +25033,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="757">
@@ -25219,10 +25069,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -25257,10 +25105,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -25295,10 +25141,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -25333,10 +25177,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25367,10 +25209,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H761" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -25401,10 +25241,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="763">
@@ -25435,10 +25273,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25465,10 +25301,8 @@
       </c>
       <c r="F764" t="inlineStr"/>
       <c r="G764" t="inlineStr"/>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25495,10 +25329,8 @@
       </c>
       <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr"/>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25529,10 +25361,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25563,10 +25393,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25593,10 +25421,8 @@
       </c>
       <c r="F768" t="inlineStr"/>
       <c r="G768" t="inlineStr"/>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="769">
@@ -25623,10 +25449,8 @@
       </c>
       <c r="F769" t="inlineStr"/>
       <c r="G769" t="inlineStr"/>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -25653,10 +25477,8 @@
       </c>
       <c r="F770" t="inlineStr"/>
       <c r="G770" t="inlineStr"/>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -25683,10 +25505,8 @@
       </c>
       <c r="F771" t="inlineStr"/>
       <c r="G771" t="inlineStr"/>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -25713,10 +25533,8 @@
       </c>
       <c r="F772" t="inlineStr"/>
       <c r="G772" t="inlineStr"/>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -25747,10 +25565,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -25773,10 +25589,8 @@
       <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr"/>
       <c r="G774" t="inlineStr"/>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -25811,10 +25625,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -25841,10 +25653,8 @@
       </c>
       <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr"/>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -25879,10 +25689,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -25917,10 +25725,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H778" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -25951,10 +25757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H779" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -25989,10 +25793,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H780" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -26023,10 +25825,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H781" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -26057,10 +25857,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="783">
@@ -26091,10 +25889,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -26125,10 +25921,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -26151,10 +25945,8 @@
       <c r="E785" t="inlineStr"/>
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -26181,10 +25973,8 @@
       </c>
       <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr"/>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26211,10 +26001,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="788">
@@ -26241,10 +26029,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26271,10 +26057,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26301,10 +26085,8 @@
       </c>
       <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr"/>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26331,10 +26113,8 @@
       </c>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26361,10 +26141,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26391,10 +26169,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26421,10 +26197,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26455,10 +26229,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -26489,10 +26261,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="797">
@@ -26515,10 +26285,8 @@
       <c r="E797" t="inlineStr"/>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="798">
@@ -26545,10 +26313,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -26579,10 +26345,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="800">
@@ -26609,10 +26373,8 @@
       </c>
       <c r="F800" t="inlineStr"/>
       <c r="G800" t="inlineStr"/>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -26635,10 +26397,8 @@
       <c r="E801" t="inlineStr"/>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -26669,10 +26429,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -26703,10 +26461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -26737,10 +26493,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -26771,10 +26525,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -26805,10 +26557,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H806" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -26839,10 +26589,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -26869,10 +26617,8 @@
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -26899,10 +26645,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="810">
@@ -26933,10 +26677,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -26971,10 +26713,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -27001,10 +26741,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27031,10 +26769,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27061,10 +26797,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27091,10 +26825,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27121,10 +26853,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27147,10 +26877,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27169,10 +26897,8 @@
       <c r="E818" t="inlineStr"/>
       <c r="F818" t="inlineStr"/>
       <c r="G818" t="inlineStr"/>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27199,10 +26925,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27229,10 +26953,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27259,10 +26981,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27303,10 +27023,8 @@
       </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27341,10 +27059,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27379,10 +27095,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="826">
@@ -27417,10 +27131,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27455,10 +27167,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27489,10 +27199,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H828" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -27523,10 +27231,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H829" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -27557,10 +27263,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27591,10 +27295,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27625,10 +27327,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="833">
@@ -27659,10 +27359,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -27693,10 +27391,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -27727,10 +27423,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27761,10 +27455,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -27795,10 +27487,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -27829,10 +27519,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -27863,10 +27551,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -27901,10 +27587,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -27939,10 +27623,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -27977,10 +27659,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -28015,10 +27695,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28041,10 +27719,8 @@
       <c r="E844" t="inlineStr"/>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28067,10 +27743,8 @@
       <c r="E845" t="inlineStr"/>
       <c r="F845" t="inlineStr"/>
       <c r="G845" t="inlineStr"/>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28093,10 +27767,8 @@
       <c r="E846" t="inlineStr"/>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28127,10 +27799,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -28157,10 +27827,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28191,10 +27859,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28225,10 +27891,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28259,10 +27923,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28297,10 +27959,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H852" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -28331,10 +27991,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -28365,10 +28023,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28399,10 +28055,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28433,10 +28087,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28471,10 +28123,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28505,10 +28155,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28539,10 +28187,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28573,10 +28219,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28607,10 +28251,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28637,10 +28279,8 @@
       </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28667,10 +28307,8 @@
       </c>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28697,10 +28335,8 @@
       </c>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28727,10 +28363,8 @@
       </c>
       <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28757,10 +28391,8 @@
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28791,10 +28423,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28825,10 +28455,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28863,10 +28491,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -28901,10 +28527,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -28939,10 +28563,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -28969,10 +28591,8 @@
       </c>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -28999,10 +28619,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29029,10 +28647,8 @@
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29055,10 +28671,8 @@
       <c r="E875" t="inlineStr"/>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29085,10 +28699,8 @@
       </c>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29111,10 +28723,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29145,10 +28755,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29171,10 +28779,8 @@
       <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29197,10 +28803,8 @@
       <c r="E880" t="inlineStr"/>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29231,10 +28835,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29265,10 +28867,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -29295,10 +28895,8 @@
       </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29329,10 +28927,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29363,10 +28959,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29401,10 +28995,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -29439,10 +29031,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -29477,10 +29067,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H888" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -29515,10 +29103,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29553,10 +29139,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29587,10 +29171,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29621,10 +29203,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29651,120 +29231,146 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B894" t="inlineStr"/>
-      <c r="C894" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
       <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr"/>
-      <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr"/>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -29776,29 +29382,29 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -29810,31 +29416,23 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
           <t>3</t>
@@ -29844,25 +29442,21 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E900" t="inlineStr"/>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
@@ -29874,31 +29468,27 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
         <is>
           <t>2</t>
@@ -29908,73 +29498,57 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F903" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
         <is>
           <t>3</t>
@@ -29982,37 +29556,25 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A904" t="inlineStr"/>
       <c r="B904" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F904" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
           <t>3</t>
@@ -30022,181 +29584,165 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C905" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr"/>
+      <c r="C905" t="inlineStr"/>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F905" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
-      <c r="E909" t="inlineStr"/>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F909" t="inlineStr"/>
       <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
@@ -30210,27 +29756,35 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
           <t>3</t>
@@ -30240,173 +29794,129 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A914" t="inlineStr"/>
       <c r="B914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B915" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C915" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr"/>
+      <c r="C915" t="inlineStr"/>
       <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G915" t="inlineStr"/>
+      <c r="H915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
@@ -30418,33 +29928,29 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
@@ -30454,33 +29960,25 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
+      <c r="A918" t="inlineStr"/>
       <c r="B918" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30488,666 +29986,26 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
+      <c r="A919" t="inlineStr"/>
       <c r="B919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C920" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B921" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B924" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C924" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C925" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr"/>
-      <c r="B926" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr"/>
-      <c r="C927" t="inlineStr"/>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C928" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr"/>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B937" t="inlineStr"/>
-      <c r="C937" t="inlineStr"/>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
-      <c r="H937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B938" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C938" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B939" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr"/>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr"/>
-      <c r="B941" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C941" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H948"/>
+  <dimension ref="A1:H928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22489,10 +22489,8 @@
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -22527,10 +22525,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="674">
@@ -22561,10 +22557,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -22591,10 +22585,8 @@
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -22621,10 +22613,8 @@
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -22651,10 +22641,8 @@
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -22685,10 +22673,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -22715,10 +22701,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -22745,10 +22729,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -22775,10 +22757,8 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -22805,10 +22785,8 @@
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="683">
@@ -22835,10 +22813,8 @@
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr"/>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -22869,10 +22845,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="685">
@@ -22899,10 +22873,8 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H685" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -22929,10 +22901,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H686" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -22963,10 +22933,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -22997,10 +22965,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23031,10 +22997,8 @@
         </is>
       </c>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23065,10 +23029,8 @@
         </is>
       </c>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23095,10 +23057,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23121,10 +23081,8 @@
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23151,10 +23109,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23181,10 +23137,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23211,10 +23165,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23237,10 +23189,8 @@
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23259,10 +23209,8 @@
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23307,10 +23255,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23341,10 +23287,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23371,10 +23315,8 @@
       </c>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23401,10 +23343,8 @@
       </c>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr"/>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="703">
@@ -23435,10 +23375,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="704">
@@ -23469,10 +23407,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="705">
@@ -23507,10 +23443,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -23541,10 +23475,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23575,10 +23507,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23609,10 +23539,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="709">
@@ -23643,10 +23571,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -23673,10 +23599,8 @@
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -23703,10 +23627,8 @@
       </c>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -23733,10 +23655,8 @@
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -23763,10 +23683,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -23797,10 +23715,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -23835,10 +23751,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H715" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -23873,10 +23787,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="717">
@@ -23911,10 +23823,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -23945,10 +23855,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -23979,10 +23887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24013,10 +23919,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24051,10 +23955,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24081,10 +23983,8 @@
       </c>
       <c r="F722" t="inlineStr"/>
       <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24107,10 +24007,8 @@
       <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="724">
@@ -24141,10 +24039,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24175,10 +24071,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24209,10 +24103,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24235,10 +24127,8 @@
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -24269,10 +24159,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24303,10 +24191,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24333,10 +24219,8 @@
       </c>
       <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr"/>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -24367,10 +24251,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -24397,10 +24279,8 @@
       </c>
       <c r="F732" t="inlineStr"/>
       <c r="G732" t="inlineStr"/>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24427,10 +24307,8 @@
       </c>
       <c r="F733" t="inlineStr"/>
       <c r="G733" t="inlineStr"/>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24453,10 +24331,8 @@
       </c>
       <c r="F734" t="inlineStr"/>
       <c r="G734" t="inlineStr"/>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24479,10 +24355,8 @@
       </c>
       <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr"/>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24531,10 +24405,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24565,10 +24437,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -24599,10 +24469,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -24633,10 +24501,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H740" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -24667,10 +24533,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="742">
@@ -24701,10 +24565,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -24735,10 +24597,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -24769,10 +24629,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -24803,10 +24661,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -24837,10 +24693,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -24871,10 +24725,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -24905,10 +24757,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -24939,10 +24789,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -24973,10 +24821,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25007,10 +24853,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25041,10 +24885,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25075,10 +24917,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -25109,10 +24949,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25143,10 +24981,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25181,10 +25017,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25219,10 +25053,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25257,10 +25089,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -25295,10 +25125,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -25333,10 +25161,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25371,10 +25197,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25409,10 +25233,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25447,10 +25269,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25485,10 +25305,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25519,10 +25337,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H765" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -25553,10 +25369,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -25587,10 +25401,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25617,10 +25429,8 @@
       </c>
       <c r="F768" t="inlineStr"/>
       <c r="G768" t="inlineStr"/>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25647,10 +25457,8 @@
       </c>
       <c r="F769" t="inlineStr"/>
       <c r="G769" t="inlineStr"/>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -25681,10 +25489,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -25715,10 +25521,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -25745,10 +25549,8 @@
       </c>
       <c r="F772" t="inlineStr"/>
       <c r="G772" t="inlineStr"/>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="773">
@@ -25775,10 +25577,8 @@
       </c>
       <c r="F773" t="inlineStr"/>
       <c r="G773" t="inlineStr"/>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -25805,10 +25605,8 @@
       </c>
       <c r="F774" t="inlineStr"/>
       <c r="G774" t="inlineStr"/>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -25835,10 +25633,8 @@
       </c>
       <c r="F775" t="inlineStr"/>
       <c r="G775" t="inlineStr"/>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -25865,10 +25661,8 @@
       </c>
       <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr"/>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -25899,10 +25693,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -25925,10 +25717,8 @@
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -25963,10 +25753,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -25993,10 +25781,8 @@
       </c>
       <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr"/>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26031,10 +25817,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26069,10 +25853,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H782" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -26103,10 +25885,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H783" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -26141,10 +25921,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -26175,10 +25953,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -26209,10 +25985,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26243,10 +26017,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="788">
@@ -26277,10 +26049,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="789">
@@ -26303,10 +26073,8 @@
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="790">
@@ -26333,10 +26101,8 @@
       </c>
       <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr"/>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="791">
@@ -26363,10 +26129,8 @@
       </c>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26393,10 +26157,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26423,10 +26185,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26453,10 +26213,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26483,10 +26241,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26513,10 +26269,8 @@
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26543,10 +26297,8 @@
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26573,10 +26325,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -26607,10 +26357,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="800">
@@ -26641,10 +26389,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="801">
@@ -26667,10 +26413,8 @@
       <c r="E801" t="inlineStr"/>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -26697,10 +26441,8 @@
       </c>
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr"/>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="803">
@@ -26731,10 +26473,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="804">
@@ -26761,10 +26501,8 @@
       </c>
       <c r="F804" t="inlineStr"/>
       <c r="G804" t="inlineStr"/>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -26787,10 +26525,8 @@
       <c r="E805" t="inlineStr"/>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr"/>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -26821,10 +26557,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -26855,10 +26589,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="808">
@@ -26889,10 +26621,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="809">
@@ -26923,10 +26653,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -26957,10 +26685,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H810" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -26991,10 +26717,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -27021,10 +26745,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="813">
@@ -27051,10 +26773,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27085,10 +26805,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27123,10 +26841,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -27153,10 +26869,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27183,10 +26897,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27213,10 +26925,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27243,10 +26953,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27273,10 +26981,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27299,10 +27005,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27321,10 +27025,8 @@
       <c r="E822" t="inlineStr"/>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27351,10 +27053,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27381,10 +27081,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27411,10 +27109,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27455,10 +27151,8 @@
       </c>
       <c r="F827" t="inlineStr"/>
       <c r="G827" t="inlineStr"/>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27493,10 +27187,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="829">
@@ -27531,10 +27223,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -27569,10 +27259,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27607,10 +27295,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -27641,10 +27327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H832" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -27675,10 +27359,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -27709,10 +27391,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -27743,10 +27423,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="836">
@@ -27777,10 +27455,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -27811,10 +27487,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -27845,10 +27519,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="839">
@@ -27879,10 +27551,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27913,10 +27583,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -27947,10 +27615,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -27981,10 +27647,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -28015,10 +27679,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28053,10 +27715,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="845">
@@ -28091,10 +27751,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28129,10 +27787,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28167,10 +27823,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28193,10 +27847,8 @@
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28219,10 +27871,8 @@
       <c r="E849" t="inlineStr"/>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28245,10 +27895,8 @@
       <c r="E850" t="inlineStr"/>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28279,10 +27927,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28309,10 +27955,8 @@
       </c>
       <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28343,10 +27987,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28377,10 +28019,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -28411,10 +28051,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28449,10 +28087,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H856" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -28483,10 +28119,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28517,10 +28151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28551,10 +28183,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28585,10 +28215,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -28623,10 +28251,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -28657,10 +28283,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28691,10 +28315,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28725,10 +28347,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28759,10 +28379,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28789,10 +28407,8 @@
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28819,10 +28435,8 @@
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28849,10 +28463,8 @@
       </c>
       <c r="F868" t="inlineStr"/>
       <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28879,10 +28491,8 @@
       </c>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -28909,10 +28519,8 @@
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -28943,10 +28551,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -28977,10 +28583,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29015,10 +28619,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -29053,10 +28655,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29091,10 +28691,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29121,10 +28719,8 @@
       </c>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29151,10 +28747,8 @@
       </c>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29181,10 +28775,8 @@
       </c>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29207,10 +28799,8 @@
       <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29237,10 +28827,8 @@
       </c>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29263,10 +28851,8 @@
       <c r="E881" t="inlineStr"/>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29297,10 +28883,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -29323,10 +28907,8 @@
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29349,10 +28931,8 @@
       <c r="E884" t="inlineStr"/>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -29383,10 +28963,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29417,10 +28995,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29447,10 +29023,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29481,10 +29055,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -29515,10 +29087,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29553,10 +29123,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H890" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -29591,10 +29159,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -29629,10 +29195,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H892" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -29667,10 +29231,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="894">
@@ -29705,10 +29267,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -29739,10 +29299,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29773,10 +29331,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29803,120 +29359,146 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr"/>
-      <c r="C898" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
       <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr"/>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr"/>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F899" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H901" t="inlineStr">
@@ -29928,29 +29510,29 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H902" t="inlineStr">
@@ -29962,31 +29544,23 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
         <is>
           <t>3</t>
@@ -29996,25 +29570,21 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
@@ -30026,31 +29596,27 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
           <t>2</t>
@@ -30060,73 +29626,57 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F906" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
       <c r="H907" t="inlineStr">
         <is>
           <t>3</t>
@@ -30134,37 +29684,25 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A908" t="inlineStr"/>
       <c r="B908" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
           <t>3</t>
@@ -30174,181 +29712,165 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B909" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C909" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr"/>
+      <c r="C909" t="inlineStr"/>
       <c r="D909" t="inlineStr"/>
-      <c r="E909" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E909" t="inlineStr"/>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr"/>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
@@ -30362,27 +29884,35 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30392,173 +29922,129 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A918" t="inlineStr"/>
       <c r="B918" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C919" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+      <c r="C919" t="inlineStr"/>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
@@ -30570,33 +30056,29 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F921" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
@@ -30608,29 +30090,29 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
@@ -30642,17 +30124,17 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
@@ -30662,11 +30144,7 @@
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
         <is>
           <t>3</t>
@@ -30676,31 +30154,23 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
           <t>3</t>
@@ -30710,17 +30180,17 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
@@ -30734,23 +30204,23 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A926" t="inlineStr"/>
       <c r="B926" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
@@ -30760,636 +30230,52 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A927" t="inlineStr"/>
       <c r="B927" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A928" t="inlineStr"/>
       <c r="B928" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E928" t="inlineStr"/>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr"/>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr"/>
-      <c r="C931" t="inlineStr"/>
-      <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr"/>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B937" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F937" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B938" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C938" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B939" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr"/>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr"/>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B941" t="inlineStr"/>
-      <c r="C941" t="inlineStr"/>
-      <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr"/>
-      <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B943" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C943" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B944" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C944" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B945" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C945" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr"/>
-      <c r="B946" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C946" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr"/>
-      <c r="B947" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C947" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="inlineStr"/>
-      <c r="B948" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C948" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
-      <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H937"/>
+  <dimension ref="A1:H917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27133,10 +27133,8 @@
       <c r="E826" t="inlineStr"/>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27159,10 +27157,8 @@
       <c r="E827" t="inlineStr"/>
       <c r="F827" t="inlineStr"/>
       <c r="G827" t="inlineStr"/>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27185,10 +27181,8 @@
       <c r="E828" t="inlineStr"/>
       <c r="F828" t="inlineStr"/>
       <c r="G828" t="inlineStr"/>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27211,10 +27205,8 @@
       <c r="E829" t="inlineStr"/>
       <c r="F829" t="inlineStr"/>
       <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27245,10 +27237,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27275,10 +27265,8 @@
       </c>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -27309,10 +27297,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -27335,10 +27321,8 @@
       <c r="E833" t="inlineStr"/>
       <c r="F833" t="inlineStr"/>
       <c r="G833" t="inlineStr"/>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -27369,10 +27353,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -27403,10 +27385,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="836">
@@ -27441,10 +27421,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H836" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -27475,10 +27453,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -27509,10 +27485,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="839">
@@ -27543,10 +27517,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -27577,10 +27549,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -27615,10 +27585,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -27649,10 +27617,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -27683,10 +27649,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -27717,10 +27681,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -27751,10 +27713,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -27781,10 +27741,8 @@
       </c>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -27811,10 +27769,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -27841,10 +27797,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -27871,10 +27825,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -27901,10 +27853,8 @@
       </c>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -27935,10 +27885,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -27969,10 +27917,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28007,10 +27953,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -28045,10 +27989,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28083,10 +28025,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28113,10 +28053,8 @@
       </c>
       <c r="F856" t="inlineStr"/>
       <c r="G856" t="inlineStr"/>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28143,10 +28081,8 @@
       </c>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28173,10 +28109,8 @@
       </c>
       <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28203,10 +28137,8 @@
       </c>
       <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr"/>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28233,10 +28165,8 @@
       </c>
       <c r="F860" t="inlineStr"/>
       <c r="G860" t="inlineStr"/>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28259,10 +28189,8 @@
       <c r="E861" t="inlineStr"/>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -28285,10 +28213,8 @@
       <c r="E862" t="inlineStr"/>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28315,10 +28241,8 @@
       </c>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28345,10 +28269,8 @@
       </c>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28379,10 +28301,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28417,10 +28337,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28447,10 +28365,8 @@
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28481,10 +28397,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -28515,10 +28429,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -28553,10 +28465,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -28591,10 +28501,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H871" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -28629,10 +28537,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H872" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -28667,10 +28573,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -28705,10 +28609,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -28739,10 +28641,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -28773,10 +28673,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -28803,86 +28701,108 @@
       </c>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B878" t="inlineStr"/>
-      <c r="C878" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D878" t="inlineStr"/>
-      <c r="E878" t="inlineStr"/>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H880" t="inlineStr">
@@ -28894,29 +28814,33 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H881" t="inlineStr">
@@ -28928,29 +28852,29 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H882" t="inlineStr">
@@ -28962,29 +28886,29 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H883" t="inlineStr">
@@ -28996,27 +28920,31 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H884" t="inlineStr">
         <is>
           <t>3</t>
@@ -29026,145 +28954,109 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G885" t="inlineStr"/>
       <c r="H885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F886" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G886" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
       <c r="H886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F887" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G887" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F888" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G888" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
           <t>3</t>
@@ -29174,35 +29066,27 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F889" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G889" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
           <t>3</t>
@@ -29210,23 +29094,23 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A890" t="inlineStr"/>
       <c r="B890" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
-      <c r="E890" t="inlineStr"/>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr">
@@ -29238,173 +29122,165 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B891" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C891" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr"/>
+      <c r="C891" t="inlineStr"/>
       <c r="D891" t="inlineStr"/>
-      <c r="E891" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr"/>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F896" t="inlineStr"/>
@@ -29418,27 +29294,35 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H897" t="inlineStr">
         <is>
           <t>3</t>
@@ -29448,173 +29332,129 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F899" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A900" t="inlineStr"/>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E900" t="inlineStr"/>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B901" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C901" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+      <c r="C901" t="inlineStr"/>
       <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H902" t="inlineStr">
@@ -29626,33 +29466,29 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F903" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H903" t="inlineStr">
@@ -29664,29 +29500,29 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H904" t="inlineStr">
@@ -29698,17 +29534,17 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
@@ -29718,11 +29554,7 @@
         </is>
       </c>
       <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
           <t>3</t>
@@ -29732,31 +29564,23 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
           <t>3</t>
@@ -29766,17 +29590,17 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
@@ -29792,21 +29616,25 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr"/>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
@@ -29818,55 +29646,55 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
@@ -29878,25 +29706,21 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
@@ -29906,23 +29730,23 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr"/>
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
@@ -29932,714 +29756,138 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B913" t="inlineStr"/>
-      <c r="C913" t="inlineStr"/>
+      <c r="A913" t="inlineStr"/>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>10-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr"/>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr"/>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
+      <c r="A914" t="inlineStr"/>
       <c r="B914" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
+      <c r="A915" t="inlineStr"/>
       <c r="B915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
+      <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
+      <c r="A916" t="inlineStr"/>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
+      <c r="A917" t="inlineStr"/>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
       <c r="H917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B918" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C918" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C919" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C920" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B921" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr"/>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr"/>
-      <c r="C923" t="inlineStr"/>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr"/>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B924" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C924" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C925" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B926" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C927" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C928" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr"/>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr"/>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr"/>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr"/>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr"/>
-      <c r="B937" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H937" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H957"/>
+  <dimension ref="A1:H936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23237,10 +23237,8 @@
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23263,10 +23261,8 @@
       <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23301,10 +23297,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23339,10 +23333,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H701" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -23377,10 +23369,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -23415,10 +23405,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="704">
@@ -23449,10 +23437,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="705">
@@ -23483,10 +23469,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -23517,10 +23501,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23555,10 +23537,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23585,10 +23565,8 @@
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23611,10 +23589,8 @@
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -23649,10 +23625,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -23679,10 +23653,8 @@
       </c>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -23713,10 +23685,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -23747,10 +23717,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -23773,10 +23741,8 @@
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -23807,10 +23773,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -23841,10 +23805,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -23871,10 +23833,8 @@
       </c>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -23905,10 +23865,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -23931,10 +23889,8 @@
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -23969,10 +23925,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -24003,10 +23957,8 @@
         </is>
       </c>
       <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24037,10 +23989,8 @@
         </is>
       </c>
       <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24063,10 +24013,8 @@
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24089,10 +24037,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24141,10 +24087,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24179,10 +24123,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -24213,10 +24155,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="729">
@@ -24251,10 +24191,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H729" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -24289,10 +24227,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -24323,10 +24259,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -24357,10 +24291,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24391,10 +24323,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24425,10 +24355,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24463,10 +24391,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24497,10 +24423,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24535,10 +24459,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24569,10 +24491,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24603,10 +24523,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -24641,10 +24559,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -24675,10 +24591,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -24709,10 +24623,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -24743,10 +24655,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -24777,10 +24687,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -24815,10 +24723,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -24853,10 +24759,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -24891,10 +24795,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -24929,10 +24831,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -24955,10 +24855,8 @@
       <c r="E749" t="inlineStr"/>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -24993,10 +24891,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25031,10 +24927,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25069,10 +24963,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25107,10 +24999,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25145,10 +25035,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25171,10 +25059,8 @@
       <c r="E755" t="inlineStr"/>
       <c r="F755" t="inlineStr"/>
       <c r="G755" t="inlineStr"/>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25209,10 +25095,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H756" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -25247,10 +25131,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25285,10 +25167,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -25315,10 +25195,8 @@
       </c>
       <c r="F759" t="inlineStr"/>
       <c r="G759" t="inlineStr"/>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -25345,10 +25223,8 @@
       </c>
       <c r="F760" t="inlineStr"/>
       <c r="G760" t="inlineStr"/>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25379,10 +25255,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25413,10 +25287,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25443,10 +25315,8 @@
       </c>
       <c r="F763" t="inlineStr"/>
       <c r="G763" t="inlineStr"/>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -25473,10 +25343,8 @@
       </c>
       <c r="F764" t="inlineStr"/>
       <c r="G764" t="inlineStr"/>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25503,10 +25371,8 @@
       </c>
       <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr"/>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25533,10 +25399,8 @@
       </c>
       <c r="F766" t="inlineStr"/>
       <c r="G766" t="inlineStr"/>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25563,10 +25427,8 @@
       </c>
       <c r="F767" t="inlineStr"/>
       <c r="G767" t="inlineStr"/>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25597,10 +25459,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25635,10 +25495,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -25665,10 +25523,8 @@
       </c>
       <c r="F770" t="inlineStr"/>
       <c r="G770" t="inlineStr"/>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -25703,10 +25559,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -25741,10 +25595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -25779,10 +25631,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H773" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -25817,10 +25667,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H774" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -25855,10 +25703,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H775" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="776">
@@ -25889,10 +25735,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="777">
@@ -25923,10 +25767,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="778">
@@ -25961,10 +25803,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -25987,10 +25827,8 @@
       <c r="E779" t="inlineStr"/>
       <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr"/>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="780">
@@ -26013,10 +25851,8 @@
       <c r="E780" t="inlineStr"/>
       <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr"/>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="781">
@@ -26043,10 +25879,8 @@
       </c>
       <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr"/>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="782">
@@ -26073,10 +25907,8 @@
       </c>
       <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr"/>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="783">
@@ -26103,10 +25935,8 @@
       </c>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26133,10 +25963,8 @@
       </c>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -26163,10 +25991,8 @@
       </c>
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -26193,10 +26019,8 @@
       </c>
       <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr"/>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26223,10 +26047,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26253,10 +26075,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26283,10 +26103,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26321,10 +26139,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="791">
@@ -26359,10 +26175,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26385,10 +26199,8 @@
       <c r="E792" t="inlineStr"/>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26415,10 +26227,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26449,10 +26259,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="795">
@@ -26479,10 +26287,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26505,10 +26311,8 @@
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="797">
@@ -26531,10 +26335,8 @@
       <c r="E797" t="inlineStr"/>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26557,10 +26359,8 @@
       <c r="E798" t="inlineStr"/>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -26591,10 +26391,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="800">
@@ -26625,10 +26423,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -26663,10 +26459,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -26701,10 +26495,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -26739,10 +26531,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H803" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -26777,10 +26567,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -26807,10 +26595,8 @@
       </c>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr"/>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -26837,10 +26623,8 @@
       </c>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="807">
@@ -26875,10 +26659,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="808">
@@ -26913,10 +26695,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -26943,10 +26723,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="810">
@@ -26973,10 +26751,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27003,10 +26779,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27033,10 +26807,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27063,10 +26835,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27089,10 +26859,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27111,10 +26879,8 @@
       <c r="E815" t="inlineStr"/>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27141,10 +26907,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27171,10 +26935,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27201,10 +26963,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27245,10 +27005,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27283,10 +27041,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -27321,10 +27077,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27359,10 +27113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27397,10 +27149,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27435,10 +27185,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -27469,10 +27217,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H826" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -27507,10 +27253,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -27545,10 +27289,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="829">
@@ -27579,10 +27321,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -27617,10 +27357,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27655,10 +27393,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27689,10 +27425,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -27723,10 +27457,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -27761,10 +27493,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -27799,10 +27529,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27837,10 +27565,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -27875,10 +27601,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -27913,10 +27637,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="839">
@@ -27951,10 +27673,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27989,10 +27709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -28015,10 +27733,8 @@
       <c r="E841" t="inlineStr"/>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -28045,10 +27761,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -28071,10 +27785,8 @@
       <c r="E843" t="inlineStr"/>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28101,10 +27813,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28135,10 +27845,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28165,10 +27873,8 @@
       </c>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28199,10 +27905,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28225,10 +27929,8 @@
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -28259,10 +27961,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28297,10 +27997,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28335,10 +28033,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H851" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -28369,10 +28065,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -28403,10 +28097,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -28441,10 +28133,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28479,10 +28169,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28517,10 +28205,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28551,10 +28237,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28585,10 +28269,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28619,10 +28301,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28653,10 +28333,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28683,10 +28361,8 @@
       </c>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28713,10 +28389,8 @@
       </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28743,10 +28417,8 @@
       </c>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28773,10 +28445,8 @@
       </c>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28803,10 +28473,8 @@
       </c>
       <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28837,10 +28505,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28871,10 +28537,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28909,10 +28573,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -28947,10 +28609,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -28985,10 +28645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29015,10 +28673,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29045,10 +28701,8 @@
       </c>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29075,10 +28729,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29105,10 +28757,8 @@
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29135,10 +28785,8 @@
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29161,10 +28809,8 @@
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="877">
@@ -29187,10 +28833,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29217,10 +28861,8 @@
       </c>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29247,10 +28889,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29281,10 +28921,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29319,10 +28957,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29349,10 +28985,8 @@
       </c>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -29383,10 +29017,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29417,10 +29049,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -29455,10 +29085,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H885" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -29493,10 +29121,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -29531,10 +29157,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -29569,10 +29193,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -29607,10 +29229,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29641,10 +29261,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29679,10 +29297,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29709,94 +29325,108 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B893" t="inlineStr"/>
-      <c r="C893" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr"/>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F894" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
@@ -29808,29 +29438,33 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
@@ -29842,29 +29476,29 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -29876,29 +29510,29 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -29910,27 +29544,31 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H899" t="inlineStr">
         <is>
           <t>3</t>
@@ -29940,145 +29578,117 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F901" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F903" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
         <is>
           <t>3</t>
@@ -30088,35 +29698,27 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F904" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
           <t>3</t>
@@ -30124,23 +29726,23 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A905" t="inlineStr"/>
       <c r="B905" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
@@ -30152,173 +29754,165 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C906" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr"/>
+      <c r="C906" t="inlineStr"/>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
       <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F911" t="inlineStr"/>
@@ -30332,27 +29926,35 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30362,177 +29964,129 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F914" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A915" t="inlineStr"/>
       <c r="B915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B916" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C916" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr"/>
+      <c r="C916" t="inlineStr"/>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G916" t="inlineStr"/>
+      <c r="H916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
@@ -30544,33 +30098,29 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H918" t="inlineStr">
@@ -30582,29 +30132,29 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
@@ -30616,17 +30166,17 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
@@ -30636,11 +30186,7 @@
         </is>
       </c>
       <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G920" t="inlineStr"/>
       <c r="H920" t="inlineStr">
         <is>
           <t>3</t>
@@ -30650,31 +30196,23 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
           <t>3</t>
@@ -30684,25 +30222,21 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
@@ -30714,23 +30248,23 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
@@ -30744,55 +30278,55 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
@@ -30804,25 +30338,21 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
@@ -30832,23 +30362,23 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
@@ -30860,165 +30390,173 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr"/>
-      <c r="C928" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr"/>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr"/>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
+      <c r="A932" t="inlineStr"/>
       <c r="B932" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A933" t="inlineStr"/>
       <c r="B933" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F933" t="inlineStr"/>
@@ -31030,35 +30568,23 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A934" t="inlineStr"/>
       <c r="B934" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E934" t="inlineStr"/>
+      <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H934" t="inlineStr">
@@ -31068,31 +30594,27 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A935" t="inlineStr"/>
       <c r="B935" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H935" t="inlineStr">
@@ -31102,624 +30624,30 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
       <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr"/>
-      <c r="B937" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B938" t="inlineStr"/>
-      <c r="C938" t="inlineStr"/>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr"/>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
-      <c r="H938" t="inlineStr"/>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B939" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B941" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C941" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B943" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C943" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr"/>
-      <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B944" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C944" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr"/>
-      <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B945" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C945" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B946" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C946" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B947" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C947" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C948" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
-      <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B949" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C949" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B950" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C950" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr"/>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B951" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C951" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D951" t="inlineStr"/>
-      <c r="E951" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C952" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr"/>
-      <c r="B953" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C953" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr"/>
-      <c r="B954" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C954" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr"/>
-      <c r="B955" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C955" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
-      <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="inlineStr"/>
-      <c r="B956" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C956" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="inlineStr"/>
-      <c r="B957" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C957" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H938"/>
+  <dimension ref="A1:H916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26987,10 +26987,8 @@
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27017,10 +27015,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27043,10 +27039,8 @@
       <c r="E821" t="inlineStr"/>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27073,10 +27067,8 @@
       </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27107,10 +27099,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27137,10 +27127,8 @@
       </c>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27171,10 +27159,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27197,10 +27183,8 @@
       <c r="E826" t="inlineStr"/>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -27231,10 +27215,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27269,10 +27251,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="829">
@@ -27307,10 +27287,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H829" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -27341,10 +27319,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27375,10 +27351,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27413,10 +27387,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="833">
@@ -27451,10 +27423,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -27489,10 +27459,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -27523,10 +27491,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27557,10 +27523,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -27591,10 +27555,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -27625,10 +27587,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -27655,10 +27615,8 @@
       </c>
       <c r="F839" t="inlineStr"/>
       <c r="G839" t="inlineStr"/>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27685,10 +27643,8 @@
       </c>
       <c r="F840" t="inlineStr"/>
       <c r="G840" t="inlineStr"/>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -27715,10 +27671,8 @@
       </c>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -27745,10 +27699,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -27775,10 +27727,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -27809,10 +27759,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -27843,10 +27791,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -27881,10 +27827,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -27919,10 +27863,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -27957,10 +27899,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -27987,10 +27927,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28017,10 +27955,8 @@
       </c>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28047,10 +27983,8 @@
       </c>
       <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr"/>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28077,10 +28011,8 @@
       </c>
       <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28107,10 +28039,8 @@
       </c>
       <c r="F853" t="inlineStr"/>
       <c r="G853" t="inlineStr"/>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28133,10 +28063,8 @@
       <c r="E854" t="inlineStr"/>
       <c r="F854" t="inlineStr"/>
       <c r="G854" t="inlineStr"/>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28163,10 +28091,8 @@
       </c>
       <c r="F855" t="inlineStr"/>
       <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28193,10 +28119,8 @@
       </c>
       <c r="F856" t="inlineStr"/>
       <c r="G856" t="inlineStr"/>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28223,10 +28147,8 @@
       </c>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28257,10 +28179,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28295,10 +28215,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28325,10 +28243,8 @@
       </c>
       <c r="F860" t="inlineStr"/>
       <c r="G860" t="inlineStr"/>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28359,10 +28275,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -28393,10 +28307,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28431,10 +28343,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H863" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -28469,10 +28379,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H864" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -28507,10 +28415,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -28545,10 +28451,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -28583,10 +28487,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -28617,10 +28519,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28655,10 +28555,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -28685,94 +28583,108 @@
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr"/>
-      <c r="C871" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr"/>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F872" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
@@ -28784,29 +28696,33 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F874" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H874" t="inlineStr">
@@ -28818,29 +28734,29 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H875" t="inlineStr">
@@ -28852,29 +28768,29 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
@@ -28886,27 +28802,31 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F877" t="inlineStr"/>
-      <c r="G877" t="inlineStr"/>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H877" t="inlineStr">
         <is>
           <t>3</t>
@@ -28916,145 +28836,117 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F879" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
       <c r="H880" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G881" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
       <c r="H881" t="inlineStr">
         <is>
           <t>3</t>
@@ -29064,35 +28956,27 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
           <t>3</t>
@@ -29100,23 +28984,23 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A883" t="inlineStr"/>
       <c r="B883" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
@@ -29128,173 +29012,165 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B884" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C884" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
+      <c r="C884" t="inlineStr"/>
       <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E884" t="inlineStr"/>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr"/>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F889" t="inlineStr"/>
@@ -29308,27 +29184,35 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H890" t="inlineStr">
         <is>
           <t>3</t>
@@ -29338,177 +29222,129 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F892" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
       <c r="H892" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A893" t="inlineStr"/>
       <c r="B893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E893" t="inlineStr"/>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G893" t="inlineStr"/>
       <c r="H893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C894" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr"/>
+      <c r="C894" t="inlineStr"/>
       <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
@@ -29520,33 +29356,29 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
@@ -29558,29 +29390,29 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -29592,17 +29424,17 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
@@ -29612,11 +29444,7 @@
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G898" t="inlineStr"/>
       <c r="H898" t="inlineStr">
         <is>
           <t>3</t>
@@ -29626,31 +29454,23 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
           <t>3</t>
@@ -29660,25 +29480,21 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E900" t="inlineStr"/>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
@@ -29690,23 +29506,23 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F901" t="inlineStr"/>
@@ -29720,55 +29536,55 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
@@ -29780,25 +29596,21 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
@@ -29808,23 +29620,23 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" t="inlineStr"/>
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
@@ -29836,169 +29648,189 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr"/>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
           <t>3</t>
@@ -30006,37 +29838,25 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A912" t="inlineStr"/>
       <c r="B912" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.665%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30044,33 +29864,25 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A913" t="inlineStr"/>
       <c r="B913" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30078,29 +29890,25 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A914" t="inlineStr"/>
       <c r="B914" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30111,18 +29919,26 @@
       <c r="A915" t="inlineStr"/>
       <c r="B915" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr"/>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30130,670 +29946,30 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B916" t="inlineStr"/>
-      <c r="C916" t="inlineStr"/>
+      <c r="A916" t="inlineStr"/>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Central Government DebtDEC</t>
+        </is>
+      </c>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr"/>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B917" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C917" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B918" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C918" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C919" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C920" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B921" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B924" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C924" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C925" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr"/>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B926" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C927" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C928" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr"/>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr"/>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr"/>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr"/>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr"/>
-      <c r="B937" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr"/>
-      <c r="B938" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C938" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
+      <c r="G916" t="inlineStr">
         <is>
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
+      <c r="H916" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H940"/>
+  <dimension ref="A1:H919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24073,10 +24073,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H725" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -24111,10 +24109,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="727">
@@ -24149,10 +24145,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24187,10 +24181,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24213,10 +24205,8 @@
       <c r="E729" t="inlineStr"/>
       <c r="F729" t="inlineStr"/>
       <c r="G729" t="inlineStr"/>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24251,10 +24241,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -24289,10 +24277,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="732">
@@ -24327,10 +24313,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24365,10 +24349,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24403,10 +24385,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24429,10 +24409,8 @@
       <c r="E735" t="inlineStr"/>
       <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr"/>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -24467,10 +24445,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H736" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -24505,10 +24481,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -24543,10 +24517,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24573,10 +24545,8 @@
       </c>
       <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -24603,10 +24573,8 @@
       </c>
       <c r="F740" t="inlineStr"/>
       <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -24637,10 +24605,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -24671,10 +24637,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -24701,10 +24665,8 @@
       </c>
       <c r="F743" t="inlineStr"/>
       <c r="G743" t="inlineStr"/>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="744">
@@ -24731,10 +24693,8 @@
       </c>
       <c r="F744" t="inlineStr"/>
       <c r="G744" t="inlineStr"/>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -24761,10 +24721,8 @@
       </c>
       <c r="F745" t="inlineStr"/>
       <c r="G745" t="inlineStr"/>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -24791,10 +24749,8 @@
       </c>
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -24821,10 +24777,8 @@
       </c>
       <c r="F747" t="inlineStr"/>
       <c r="G747" t="inlineStr"/>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -24859,10 +24813,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -24889,10 +24841,8 @@
       </c>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -24927,10 +24877,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -24965,10 +24913,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H751" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -25003,10 +24949,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H752" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -25041,10 +24985,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H753" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -25079,10 +25021,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H754" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -25113,10 +25053,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25147,10 +25085,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25185,10 +25121,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25211,10 +25145,8 @@
       <c r="E758" t="inlineStr"/>
       <c r="F758" t="inlineStr"/>
       <c r="G758" t="inlineStr"/>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -25237,10 +25169,8 @@
       <c r="E759" t="inlineStr"/>
       <c r="F759" t="inlineStr"/>
       <c r="G759" t="inlineStr"/>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25267,10 +25197,8 @@
       </c>
       <c r="F760" t="inlineStr"/>
       <c r="G760" t="inlineStr"/>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -25297,10 +25225,8 @@
       </c>
       <c r="F761" t="inlineStr"/>
       <c r="G761" t="inlineStr"/>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="762">
@@ -25327,10 +25253,8 @@
       </c>
       <c r="F762" t="inlineStr"/>
       <c r="G762" t="inlineStr"/>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25357,10 +25281,8 @@
       </c>
       <c r="F763" t="inlineStr"/>
       <c r="G763" t="inlineStr"/>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25387,10 +25309,8 @@
       </c>
       <c r="F764" t="inlineStr"/>
       <c r="G764" t="inlineStr"/>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25417,10 +25337,8 @@
       </c>
       <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr"/>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25447,10 +25365,8 @@
       </c>
       <c r="F766" t="inlineStr"/>
       <c r="G766" t="inlineStr"/>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25477,10 +25393,8 @@
       </c>
       <c r="F767" t="inlineStr"/>
       <c r="G767" t="inlineStr"/>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25507,10 +25421,8 @@
       </c>
       <c r="F768" t="inlineStr"/>
       <c r="G768" t="inlineStr"/>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25545,10 +25457,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -25583,10 +25493,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -25609,10 +25517,8 @@
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
       <c r="G771" t="inlineStr"/>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -25639,10 +25545,8 @@
       </c>
       <c r="F772" t="inlineStr"/>
       <c r="G772" t="inlineStr"/>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -25673,10 +25577,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -25703,10 +25605,8 @@
       </c>
       <c r="F774" t="inlineStr"/>
       <c r="G774" t="inlineStr"/>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -25729,10 +25629,8 @@
       <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr"/>
       <c r="G775" t="inlineStr"/>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -25755,10 +25653,8 @@
       <c r="E776" t="inlineStr"/>
       <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr"/>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -25781,10 +25677,8 @@
       <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr"/>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -25815,10 +25709,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -25849,10 +25741,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -25887,10 +25777,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -25925,10 +25813,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="782">
@@ -25963,10 +25849,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H782" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -26001,10 +25885,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -26031,10 +25913,8 @@
       </c>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -26061,10 +25941,8 @@
       </c>
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -26099,10 +25977,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26137,10 +26013,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="788">
@@ -26167,10 +26041,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26197,10 +26069,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26227,10 +26097,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26257,10 +26125,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26287,10 +26153,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26313,10 +26177,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26335,10 +26197,8 @@
       <c r="E794" t="inlineStr"/>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26365,10 +26225,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26395,10 +26253,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26425,10 +26281,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26469,10 +26323,8 @@
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr"/>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -26507,10 +26359,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="801">
@@ -26545,10 +26395,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -26583,10 +26431,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="803">
@@ -26621,10 +26467,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -26659,10 +26503,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H804" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -26693,10 +26535,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H805" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -26731,10 +26571,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -26769,10 +26607,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -26803,10 +26639,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -26841,10 +26675,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -26879,10 +26711,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -26913,10 +26743,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -26947,10 +26775,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -26985,10 +26811,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27023,10 +26847,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27061,10 +26883,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -27099,10 +26919,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="817">
@@ -27137,10 +26955,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -27175,10 +26991,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27213,10 +27027,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27239,10 +27051,8 @@
       <c r="E820" t="inlineStr"/>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27269,10 +27079,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27295,10 +27103,8 @@
       <c r="E822" t="inlineStr"/>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27325,10 +27131,8 @@
       </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27359,10 +27163,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27389,10 +27191,8 @@
       </c>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27423,10 +27223,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27449,10 +27247,8 @@
       <c r="E827" t="inlineStr"/>
       <c r="F827" t="inlineStr"/>
       <c r="G827" t="inlineStr"/>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -27483,10 +27279,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27521,10 +27315,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -27559,10 +27351,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H830" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -27593,10 +27383,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27627,10 +27415,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="833">
@@ -27665,10 +27451,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -27703,10 +27487,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -27741,10 +27523,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="836">
@@ -27775,10 +27555,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -27809,10 +27587,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -27843,10 +27619,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -27877,10 +27651,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27907,10 +27679,8 @@
       </c>
       <c r="F840" t="inlineStr"/>
       <c r="G840" t="inlineStr"/>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -27937,10 +27707,8 @@
       </c>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -27967,10 +27735,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -27997,10 +27763,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28027,10 +27791,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28061,10 +27823,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28095,10 +27855,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28133,10 +27891,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -28171,10 +27927,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -28209,10 +27963,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28239,10 +27991,8 @@
       </c>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28269,10 +28019,8 @@
       </c>
       <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr"/>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28299,10 +28047,8 @@
       </c>
       <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28329,10 +28075,8 @@
       </c>
       <c r="F853" t="inlineStr"/>
       <c r="G853" t="inlineStr"/>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28359,10 +28103,8 @@
       </c>
       <c r="F854" t="inlineStr"/>
       <c r="G854" t="inlineStr"/>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -28385,10 +28127,8 @@
       <c r="E855" t="inlineStr"/>
       <c r="F855" t="inlineStr"/>
       <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28415,10 +28155,8 @@
       </c>
       <c r="F856" t="inlineStr"/>
       <c r="G856" t="inlineStr"/>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28445,10 +28183,8 @@
       </c>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28475,10 +28211,8 @@
       </c>
       <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28509,10 +28243,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28547,10 +28279,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28577,10 +28307,8 @@
       </c>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28611,10 +28339,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -28645,10 +28371,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28683,10 +28407,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H864" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -28721,10 +28443,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -28759,10 +28479,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H866" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -28797,10 +28515,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -28835,10 +28551,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -28869,10 +28583,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -28907,10 +28619,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -28937,94 +28647,108 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B872" t="inlineStr"/>
-      <c r="C872" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D872" t="inlineStr"/>
-      <c r="E872" t="inlineStr"/>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr"/>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F873" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H874" t="inlineStr">
@@ -29036,29 +28760,33 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F875" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H875" t="inlineStr">
@@ -29070,29 +28798,29 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
@@ -29104,29 +28832,29 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H877" t="inlineStr">
@@ -29138,27 +28866,31 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H878" t="inlineStr">
         <is>
           <t>3</t>
@@ -29168,145 +28900,117 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
       <c r="H880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G881" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
       <c r="H881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
           <t>3</t>
@@ -29316,35 +29020,27 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F883" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G883" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
         <is>
           <t>3</t>
@@ -29352,23 +29048,23 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A884" t="inlineStr"/>
       <c r="B884" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr"/>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
@@ -29380,173 +29076,165 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C885" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
       <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr"/>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr"/>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
@@ -29560,27 +29248,35 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H891" t="inlineStr">
         <is>
           <t>3</t>
@@ -29590,177 +29286,129 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F892" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F893" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr"/>
       <c r="H893" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A894" t="inlineStr"/>
       <c r="B894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C895" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr"/>
       <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E895" t="inlineStr"/>
       <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
@@ -29772,33 +29420,29 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -29810,29 +29454,29 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -29844,17 +29488,17 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
@@ -29864,11 +29508,7 @@
         </is>
       </c>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
           <t>3</t>
@@ -29878,31 +29518,23 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E900" t="inlineStr"/>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
         <is>
           <t>3</t>
@@ -29912,25 +29544,21 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
@@ -29942,23 +29570,23 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F902" t="inlineStr"/>
@@ -29972,55 +29600,55 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
@@ -30032,25 +29660,21 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
@@ -30060,23 +29684,23 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr"/>
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
@@ -30088,169 +29712,189 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr"/>
-      <c r="C907" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr"/>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
       <c r="G909" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr"/>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30260,7 +29904,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -30270,25 +29914,17 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30296,33 +29932,25 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A914" t="inlineStr"/>
       <c r="B914" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30330,25 +29958,21 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A915" t="inlineStr"/>
       <c r="B915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
@@ -30363,18 +29987,22 @@
       <c r="A916" t="inlineStr"/>
       <c r="B916" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H916" t="inlineStr">
         <is>
           <t>3</t>
@@ -30382,692 +30010,82 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B917" t="inlineStr"/>
-      <c r="C917" t="inlineStr"/>
+      <c r="A917" t="inlineStr"/>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr"/>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr"/>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A918" t="inlineStr"/>
       <c r="B918" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A919" t="inlineStr"/>
       <c r="B919" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C920" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B921" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr"/>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B924" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C924" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C925" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B926" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C927" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C928" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr"/>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr"/>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr"/>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr"/>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr"/>
-      <c r="B937" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr"/>
-      <c r="B938" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C938" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr"/>
-      <c r="B939" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr"/>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr"/>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
-      <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
         </is>
